--- a/Örnek 36 - Eğer say ETOPLA.xlsx
+++ b/Örnek 36 - Eğer say ETOPLA.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD167E9D-B95E-494B-86CC-74BFBD4631B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF019B9A-3903-4637-8DF2-0B5A744459C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="koşullu biçimlendirme" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>miktarı</t>
   </si>
@@ -106,11 +109,23 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>ŞEFTALİ</t>
+  </si>
+  <si>
+    <t>ARMUT</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -779,12 +794,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa25"/>
   <dimension ref="C2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -900,9 +915,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="12">
+        <f>COUNTIF(C4:E20,G9)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
@@ -982,10 +1000,16 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="H14" s="19">
+        <f ca="1">SUMIF(C4:E20,G14,D4:D20)</f>
+        <v>155</v>
+      </c>
+      <c r="I14" s="19">
+        <f ca="1">SUMIF(C4:E20,G14,E4:E20)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
@@ -1025,7 +1049,9 @@
       <c r="G17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24">
+        <v>20215070019</v>
+      </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
@@ -1043,7 +1069,9 @@
       <c r="G18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
     </row>
@@ -1061,7 +1089,9 @@
       <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
